--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.379369</v>
+        <v>1.120168333333333</v>
       </c>
       <c r="H2">
-        <v>31.138107</v>
+        <v>3.360505</v>
       </c>
       <c r="I2">
-        <v>0.01614698522449884</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="J2">
-        <v>0.01614698522449883</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N2">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O2">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P2">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q2">
-        <v>3091.166193262814</v>
+        <v>9.120831753293333</v>
       </c>
       <c r="R2">
-        <v>27820.49573936533</v>
+        <v>82.08748577964001</v>
       </c>
       <c r="S2">
-        <v>0.014293563880716</v>
+        <v>0.0003078804331784457</v>
       </c>
       <c r="T2">
-        <v>0.014293563880716</v>
+        <v>0.0003078804331784457</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.379369</v>
+        <v>1.120168333333333</v>
       </c>
       <c r="H3">
-        <v>31.138107</v>
+        <v>3.360505</v>
       </c>
       <c r="I3">
-        <v>0.01614698522449884</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="J3">
-        <v>0.01614698522449883</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>73.021033</v>
       </c>
       <c r="O3">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P3">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q3">
-        <v>252.6374154227257</v>
+        <v>27.26528294462944</v>
       </c>
       <c r="R3">
-        <v>2273.736738804531</v>
+        <v>245.387546501665</v>
       </c>
       <c r="S3">
-        <v>0.001168196340874221</v>
+        <v>0.0009203598258124156</v>
       </c>
       <c r="T3">
-        <v>0.001168196340874221</v>
+        <v>0.0009203598258124156</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.379369</v>
+        <v>1.120168333333333</v>
       </c>
       <c r="H4">
-        <v>31.138107</v>
+        <v>3.360505</v>
       </c>
       <c r="I4">
-        <v>0.01614698522449884</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="J4">
-        <v>0.01614698522449883</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>42.831702</v>
       </c>
       <c r="O4">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P4">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q4">
-        <v>148.188679985346</v>
+        <v>15.99290541439</v>
       </c>
       <c r="R4">
-        <v>1333.698119868114</v>
+        <v>143.93614872951</v>
       </c>
       <c r="S4">
-        <v>0.0006852250029086148</v>
+        <v>0.0005398523709185173</v>
       </c>
       <c r="T4">
-        <v>0.0006852250029086147</v>
+        <v>0.0005398523709185173</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1812.093628</v>
       </c>
       <c r="I5">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="J5">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N5">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O5">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P5">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q5">
-        <v>179891.5573737531</v>
+        <v>4918.249222126709</v>
       </c>
       <c r="R5">
-        <v>1619024.016363778</v>
+        <v>44264.24299914039</v>
       </c>
       <c r="S5">
-        <v>0.8318192249020279</v>
+        <v>0.1660191462737122</v>
       </c>
       <c r="T5">
-        <v>0.831819224902028</v>
+        <v>0.1660191462737122</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1812.093628</v>
       </c>
       <c r="I6">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="J6">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>73.021033</v>
       </c>
       <c r="O6">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P6">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q6">
         <v>14702.32762325308</v>
@@ -818,10 +818,10 @@
         <v>132320.9486092777</v>
       </c>
       <c r="S6">
-        <v>0.06798361716565143</v>
+        <v>0.4962879614289722</v>
       </c>
       <c r="T6">
-        <v>0.06798361716565145</v>
+        <v>0.4962879614289722</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1812.093628</v>
       </c>
       <c r="I7">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="J7">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>42.831702</v>
       </c>
       <c r="O7">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P7">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q7">
         <v>8623.894918954984</v>
@@ -880,10 +880,10 @@
         <v>77615.05427059486</v>
       </c>
       <c r="S7">
-        <v>0.03987692191811731</v>
+        <v>0.2911059621700125</v>
       </c>
       <c r="T7">
-        <v>0.03987692191811731</v>
+        <v>0.2911059621700125</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>28.39480333333333</v>
       </c>
       <c r="H8">
-        <v>85.18440999999999</v>
+        <v>85.18441</v>
       </c>
       <c r="I8">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="J8">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N8">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O8">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P8">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q8">
-        <v>8456.492502419584</v>
+        <v>231.2011651860533</v>
       </c>
       <c r="R8">
-        <v>76108.43252177625</v>
+        <v>2080.81048667448</v>
       </c>
       <c r="S8">
-        <v>0.03910285252652328</v>
+        <v>0.007804366620746086</v>
       </c>
       <c r="T8">
-        <v>0.03910285252652329</v>
+        <v>0.007804366620746086</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>28.39480333333333</v>
       </c>
       <c r="H9">
-        <v>85.18440999999999</v>
+        <v>85.18441</v>
       </c>
       <c r="I9">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="J9">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>73.021033</v>
       </c>
       <c r="O9">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P9">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q9">
-        <v>691.1392904106143</v>
+        <v>691.1392904106144</v>
       </c>
       <c r="R9">
         <v>6220.25361369553</v>
       </c>
       <c r="S9">
-        <v>0.003195830628417115</v>
+        <v>0.02332991879182843</v>
       </c>
       <c r="T9">
-        <v>0.003195830628417115</v>
+        <v>0.02332991879182843</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>28.39480333333333</v>
       </c>
       <c r="H10">
-        <v>85.18440999999999</v>
+        <v>85.18441</v>
       </c>
       <c r="I10">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="J10">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>42.831702</v>
       </c>
       <c r="O10">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P10">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q10">
-        <v>405.3992515739799</v>
+        <v>405.39925157398</v>
       </c>
       <c r="R10">
-        <v>3648.593264165819</v>
+        <v>3648.59326416582</v>
       </c>
       <c r="S10">
-        <v>0.001874567634764008</v>
+        <v>0.01368455208481911</v>
       </c>
       <c r="T10">
-        <v>0.001874567634764009</v>
+        <v>0.01368455208481911</v>
       </c>
     </row>
   </sheetData>
